--- a/docs/parts.xlsx
+++ b/docs/parts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,36 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>CHERRY MX 540-MX1A-E1NW</t>
+  </si>
+  <si>
+    <t>Mechanical pushbutton switch</t>
+  </si>
+  <si>
+    <t>WURTH ELEKTRONIK 482009514001</t>
+  </si>
+  <si>
+    <t>Mechanical incremental encoder with switch</t>
+  </si>
+  <si>
+    <t>cherry mx - mouser.com</t>
+  </si>
+  <si>
+    <t>wurth incremental encoder - mouser.com</t>
+  </si>
+  <si>
+    <t>LED RGB WS2812B RING</t>
+  </si>
+  <si>
+    <t>Ring of 8 RGB LED diodes</t>
+  </si>
+  <si>
+    <t>ws2812 RGB LED - botland.pl</t>
+  </si>
+  <si>
+    <t>STM32F401RCT - lcsc.com</t>
   </si>
 </sst>
 </file>
@@ -47,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#,##0.000\ [$USD]"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000\ [$USD]"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,8 +89,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,19 +167,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,7 +469,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,150 +478,207 @@
     <col min="2" max="2" width="79.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>6.7226999999999997</v>
       </c>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/docs/parts.xlsx
+++ b/docs/parts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>STM32F401RCT - lcsc.com</t>
+  </si>
+  <si>
+    <t>LINEAR POTENTIOMETER 10k Ohm</t>
+  </si>
+  <si>
+    <t>Potentiometer 10k Ohm</t>
+  </si>
+  <si>
+    <t>potentiometer 10k - botland.pl</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,11 +576,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -677,8 +696,9 @@
     <hyperlink ref="E4" r:id="rId2"/>
     <hyperlink ref="E5" r:id="rId3"/>
     <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/docs/parts.xlsx
+++ b/docs/parts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -72,24 +72,37 @@
     <t>STM32F401RCT - lcsc.com</t>
   </si>
   <si>
-    <t>LINEAR POTENTIOMETER 10k Ohm</t>
-  </si>
-  <si>
-    <t>Potentiometer 10k Ohm</t>
-  </si>
-  <si>
-    <t>potentiometer 10k - botland.pl</t>
+    <t>OR Gate</t>
+  </si>
+  <si>
+    <t>3 input OR gate for microcontroller reset procedure</t>
+  </si>
+  <si>
+    <t>OR gate - lcsc.com</t>
+  </si>
+  <si>
+    <t>WS2812B</t>
+  </si>
+  <si>
+    <t>Adressable RGB LED diode</t>
+  </si>
+  <si>
+    <t>WS2812B - lcsc.com</t>
+  </si>
+  <si>
+    <t>SUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000\ [$USD]"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$USD]"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +127,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -194,6 +222,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -475,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
         <v>4.3600000000000003</v>
@@ -583,21 +617,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>0.76</v>
+        <v>0.126</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -683,12 +727,16 @@
       <c r="D19" s="3"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="10">
+        <f>SUMPRODUCT(C2:C7,D2:D7)</f>
+        <v>31.399300000000004</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -697,8 +745,9 @@
     <hyperlink ref="E5" r:id="rId3"/>
     <hyperlink ref="E2" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/docs/parts.xlsx
+++ b/docs/parts.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -48,18 +48,9 @@
     <t>Mechanical pushbutton switch</t>
   </si>
   <si>
-    <t>WURTH ELEKTRONIK 482009514001</t>
-  </si>
-  <si>
-    <t>Mechanical incremental encoder with switch</t>
-  </si>
-  <si>
     <t>cherry mx - mouser.com</t>
   </si>
   <si>
-    <t>wurth incremental encoder - mouser.com</t>
-  </si>
-  <si>
     <t>LED RGB WS2812B RING</t>
   </si>
   <si>
@@ -91,18 +82,27 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENKODER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enkoder botland </t>
+  </si>
+  <si>
+    <t>Mechanical incremental encoder with switch EC11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000\ [$USD]"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$USD]"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -324,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -501,21 +501,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
     <col min="2" max="2" width="79.77734375" customWidth="1"/>
@@ -524,7 +524,7 @@
     <col min="5" max="5" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="29.4" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -555,10 +555,10 @@
         <v>6.7226999999999997</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -572,15 +572,15 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -589,15 +589,15 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -606,15 +606,15 @@
         <v>2.5</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -623,15 +623,15 @@
         <v>0.126</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -640,99 +640,99 @@
         <v>5.8099999999999999E-2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
       <c r="D18" s="3"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="D22" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="D23" s="10">
         <f>SUMPRODUCT(C2:C7,D2:D7)</f>
         <v>31.399300000000004</v>
